--- a/REGRESSION.xlsx
+++ b/REGRESSION.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="140" windowWidth="19420" windowHeight="9800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="136">
   <si>
     <t>SN</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Enter number of rows n where n is a character or string.</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Click gear icon. Input a new n where n is an integer. Click "Apply".</t>
   </si>
   <si>
@@ -427,16 +424,13 @@
   </si>
   <si>
     <t>Program should move the triangle.</t>
-  </si>
-  <si>
-    <t>Note: Yung mga naka-red either error or di pa tapos. Yung mga orange, kung trip niyo i-consider kung paano magre-react yung program, kayo bahala. Thanks!! Xoxo comsci girls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,12 +458,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -483,13 +471,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -498,20 +483,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -590,6 +579,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -624,6 +614,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -799,67 +790,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="38.54296875" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="84" customHeight="1">
-      <c r="B1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="30">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -867,103 +873,103 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="45">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="30">
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -977,539 +983,536 @@
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="45">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="45">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" ht="30">
-      <c r="A14" s="1">
+      <c r="B33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" ht="30">
-      <c r="A15" s="1">
+      <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" ht="30">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A20" s="1">
+      <c r="D38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" ht="30">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" ht="30">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A26" s="1">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" ht="30">
-      <c r="A27" s="1">
-        <v>24</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A28" s="1">
-        <v>25</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A29" s="1">
-        <v>26</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" ht="30">
-      <c r="A30" s="1">
-        <v>27</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A31" s="1">
-        <v>28</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A32" s="1">
-        <v>29</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="30">
-      <c r="A33" s="1">
-        <v>30</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" s="9" customFormat="1">
-      <c r="A34" s="1">
-        <v>31</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" s="9" customFormat="1">
-      <c r="A35" s="1">
-        <v>32</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" ht="30">
-      <c r="A36" s="1">
-        <v>33</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="1">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="45">
-      <c r="A38" s="1">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="35.25" customHeight="1">
+    </row>
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="45">
+    <row r="40" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>35</v>
@@ -1521,718 +1524,701 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="60">
-      <c r="A42" s="1">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30">
+    <row r="43" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="60">
+    <row r="44" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="60">
+    <row r="45" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="60">
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="45">
+    <row r="47" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="60">
+    <row r="48" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="60">
+    <row r="49" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="75">
+    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45">
+    <row r="51" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="75">
+    <row r="52" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="75">
+    <row r="53" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="75">
+    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="45">
+    <row r="55" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="75">
+    <row r="56" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="75">
+    <row r="57" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="75">
+    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="45">
+    <row r="59" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="75">
+    <row r="60" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="75">
+    <row r="61" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="75">
+    <row r="62" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45">
+    <row r="63" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="75">
+    <row r="64" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="75">
+    <row r="65" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="45">
+    <row r="66" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="45">
+    <row r="67" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="45">
+    <row r="68" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="45">
+    <row r="69" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="60">
+    <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="45">
+    <row r="71" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="60">
+    <row r="72" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="60">
+    <row r="73" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="60">
+    <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30">
+    <row r="75" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="60">
+    <row r="76" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="60">
-      <c r="A77" s="1">
-        <v>74</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" ht="45">
-      <c r="A78" s="1">
-        <v>75</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" s="5" customFormat="1" ht="45">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>76</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" s="5" customFormat="1" ht="45">
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>77</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" s="5" customFormat="1" ht="45">
-      <c r="A81" s="1">
-        <v>78</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REGRESSION.xlsx
+++ b/REGRESSION.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="137">
   <si>
     <t>SN</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Program should generate Pascal's Triangle with n rows. If user clicks a cell, the symmetric cell should be highlighted.</t>
   </si>
   <si>
-    <t xml:space="preserve">If no initial mysteries are applied, program should </t>
-  </si>
-  <si>
     <t>Generate Pascal's Triangle (Regenerate)</t>
   </si>
   <si>
@@ -424,6 +421,12 @@
   </si>
   <si>
     <t>Program should move the triangle.</t>
+  </si>
+  <si>
+    <t>Program should generate Pascal's Triangle with n rows. The cells should automatically be colored according to modulo answer.</t>
+  </si>
+  <si>
+    <t>If no initial mysteries are applied, program should ignore the choice and apply previously picked mystery.</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,12 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -479,10 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -793,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,34 +801,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -845,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -865,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -883,33 +876,33 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -919,43 +912,43 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -972,10 +965,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -985,90 +978,90 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5"/>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
@@ -1080,360 +1073,360 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="D17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="D21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="D24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="D27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="E29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="D30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="E34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="E35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
@@ -1460,7 +1453,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
@@ -1478,13 +1471,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>7</v>
@@ -1495,10 +1488,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>16</v>
@@ -1512,10 +1505,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>16</v>
@@ -1529,13 +1522,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
@@ -1546,13 +1539,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>7</v>
@@ -1563,13 +1556,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
@@ -1580,13 +1573,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>7</v>
@@ -1597,13 +1590,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>7</v>
@@ -1614,13 +1607,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>7</v>
@@ -1631,13 +1624,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
@@ -1648,13 +1641,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>7</v>
@@ -1665,13 +1658,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
@@ -1682,13 +1675,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>7</v>
@@ -1699,13 +1692,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>7</v>
@@ -1716,13 +1709,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
@@ -1733,13 +1726,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>7</v>
@@ -1750,13 +1743,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>7</v>
@@ -1767,13 +1760,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
@@ -1784,13 +1777,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
@@ -1801,13 +1794,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>7</v>
@@ -1818,13 +1811,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
@@ -1835,13 +1828,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>7</v>
@@ -1852,13 +1845,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>7</v>
@@ -1869,13 +1862,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
@@ -1886,13 +1879,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>7</v>
@@ -1903,13 +1896,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>7</v>
@@ -1920,13 +1913,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>7</v>
@@ -1937,13 +1930,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>7</v>
@@ -1954,13 +1947,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>7</v>
@@ -1971,13 +1964,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>7</v>
@@ -1988,13 +1981,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>7</v>
@@ -2005,13 +1998,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>7</v>
@@ -2022,13 +2015,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>7</v>
@@ -2039,13 +2032,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>7</v>
@@ -2056,13 +2049,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>7</v>
@@ -2073,13 +2066,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
@@ -2090,13 +2083,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>7</v>
@@ -2107,13 +2100,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>7</v>
@@ -2124,69 +2117,85 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="D80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
